--- a/srcript/reg_tab/csr_excel/table_csr_excel/hirar_table_csr.xlsx
+++ b/srcript/reg_tab/csr_excel/table_csr_excel/hirar_table_csr.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\es90_document\trunk\design_doc\module_design\CSR\csr_excel\table_csr_excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12420" tabRatio="944" activeTab="4"/>
   </bookViews>
@@ -18,7 +13,7 @@
     <sheet name="hirar_trunktable_0" sheetId="5" r:id="rId4"/>
     <sheet name="hirar_strunktable_0" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -26,9 +21,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="181">
   <si>
     <t>CSR节点号</t>
-  </si>
-  <si>
-    <t>MODLIST_TABLE_ADDR_PREFIX</t>
   </si>
   <si>
     <t>表结构名</t>
@@ -279,9 +271,6 @@
     <t>0x01e</t>
   </si>
   <si>
-    <t>P0_M2N_TABLE_ADDR_PREFIX</t>
-  </si>
-  <si>
     <t>M2N_t</t>
   </si>
   <si>
@@ -309,12 +298,6 @@
     <t>csr_error_par_chk_memblk_err_c</t>
   </si>
   <si>
-    <t>MODBIT_TABLE_ADDR_PREFIX</t>
-  </si>
-  <si>
-    <t>P0_TRUNK_TABLE_ADDR_PREFIX</t>
-  </si>
-  <si>
     <t>63:7</t>
   </si>
   <si>
@@ -358,9 +341,6 @@
   </si>
   <si>
     <t>0x011</t>
-  </si>
-  <si>
-    <t>P0_STRUNK_TABLE_ADDR_PREFIX</t>
   </si>
   <si>
     <t>csr_error_bypass_data_reg_collision掩码，缺省为1，屏蔽该中断；若不屏蔽，则将该位清0</t>
@@ -790,12 +770,32 @@
     <t>占1个寄存器宽度的表间接访问寄存器</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>HIRAR_MODLIST_TABLE_ADDR_PREFIX</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIRAR_MODBIT_TABLE_ADDR_PREFIX</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIRAR_M2N_TABLE_ADDR_PREFIX</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIRAR_TRUNK_TABLE_ADDR_PREFIX</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIRAR_STRUNK_TABLE_ADDR_PREFIX</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1200,6 +1200,24 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1209,41 +1227,23 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1264,7 +1264,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1306,7 +1306,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1338,10 +1338,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1373,7 +1372,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1549,14 +1547,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="30.25" customWidth="1"/>
@@ -1567,573 +1565,554 @@
     <col min="8" max="8" width="89.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="8" t="s">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="43" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="C4" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="48" t="s">
+      <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="43"/>
       <c r="B5" s="45"/>
       <c r="C5" s="47"/>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G5" s="48"/>
       <c r="H5" s="24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="43"/>
       <c r="B6" s="45"/>
       <c r="C6" s="47"/>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G6" s="48"/>
       <c r="H6" s="24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="43"/>
       <c r="B7" s="45"/>
       <c r="C7" s="47"/>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G7" s="48"/>
       <c r="H7" s="24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="54">
       <c r="A8" s="43"/>
       <c r="B8" s="46"/>
       <c r="C8" s="47"/>
       <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="G8" s="49"/>
       <c r="H8" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="G9" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>110</v>
-      </c>
       <c r="H9" s="24"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="39"/>
       <c r="B10" s="25"/>
       <c r="C10" s="41"/>
       <c r="D10" s="26" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G10" s="42"/>
       <c r="H10" s="24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="39" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="39"/>
       <c r="B12" s="25"/>
       <c r="C12" s="41"/>
       <c r="D12" s="26" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="39" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H13" s="24"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="39"/>
       <c r="B14" s="25"/>
       <c r="C14" s="41"/>
       <c r="D14" s="26" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G14" s="42"/>
       <c r="H14" s="24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="39" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H15" s="24"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="39"/>
       <c r="B16" s="25"/>
       <c r="C16" s="41"/>
       <c r="D16" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G16" s="42"/>
       <c r="H16" s="24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="39" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H17" s="24"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="39"/>
       <c r="B18" s="25"/>
       <c r="C18" s="41"/>
       <c r="D18" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G18" s="42"/>
       <c r="H18" s="24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="39" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H19" s="24"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20" s="39"/>
       <c r="B20" s="25"/>
       <c r="C20" s="41"/>
       <c r="D20" s="14" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G20" s="42"/>
       <c r="H20" s="24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="39" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G21" s="40" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H21" s="24"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="A22" s="39"/>
       <c r="B22" s="25"/>
       <c r="C22" s="41"/>
       <c r="D22" s="14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G22" s="42"/>
       <c r="H22" s="24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="39" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G23" s="40" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="A24" s="39"/>
       <c r="B24" s="25"/>
       <c r="C24" s="41"/>
       <c r="D24" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G24" s="42"/>
       <c r="H24" s="24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="39" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="A26" s="39"/>
       <c r="B26" s="25"/>
       <c r="C26" s="41"/>
       <c r="D26" s="14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G26" s="42"/>
       <c r="H26" s="24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="27" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="G17:G18"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="C25:C26"/>
@@ -2146,6 +2125,25 @@
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="G13:G14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2154,14 +2152,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="28.75" customWidth="1"/>
@@ -2171,711 +2169,696 @@
     <col min="8" max="8" width="89.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="8" t="s">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="43" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="C4" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G4" s="48" t="s">
+      <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="43"/>
       <c r="B5" s="45"/>
       <c r="C5" s="47"/>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G5" s="48"/>
       <c r="H5" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="43"/>
       <c r="B6" s="45"/>
       <c r="C6" s="47"/>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G6" s="48"/>
       <c r="H6" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="43"/>
       <c r="B7" s="45"/>
       <c r="C7" s="47"/>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G7" s="48"/>
       <c r="H7" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="43"/>
       <c r="B8" s="45"/>
       <c r="C8" s="47"/>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G8" s="48"/>
       <c r="H8" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="54">
       <c r="A9" s="43"/>
       <c r="B9" s="46"/>
       <c r="C9" s="47"/>
       <c r="D9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="G9" s="49"/>
       <c r="H9" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="43" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="43" t="s">
+      <c r="B10" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="44" t="s">
+      <c r="D10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="44" t="s">
-        <v>35</v>
-      </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="43"/>
       <c r="B11" s="9"/>
       <c r="C11" s="45"/>
       <c r="D11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="G11" s="49"/>
       <c r="H11" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C12" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="F12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="44" t="s">
-        <v>35</v>
-      </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="23"/>
       <c r="B13" s="9"/>
       <c r="C13" s="45"/>
       <c r="D13" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="G13" s="49"/>
       <c r="H13" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="18" t="s">
-        <v>42</v>
-      </c>
       <c r="B14" s="9" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C14" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="F14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="44" t="s">
-        <v>35</v>
-      </c>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="23"/>
       <c r="B15" s="9"/>
       <c r="C15" s="45"/>
       <c r="D15" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="G15" s="49"/>
       <c r="H15" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="18" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="18" t="s">
-        <v>45</v>
-      </c>
       <c r="B16" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C16" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="14" t="s">
+      <c r="F16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="G16" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="44" t="s">
-        <v>35</v>
-      </c>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="C17" s="45"/>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="G17" s="49"/>
       <c r="H17" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="18" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="18" t="s">
+      <c r="B18" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="44" t="s">
-        <v>49</v>
-      </c>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="19"/>
       <c r="B19" s="9"/>
       <c r="C19" s="45"/>
       <c r="D19" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="G19" s="49"/>
       <c r="H19" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="14" t="s">
+      <c r="F20" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="G20" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21" s="23"/>
       <c r="B21" s="9"/>
       <c r="C21" s="45"/>
       <c r="D21" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="G21" s="49"/>
       <c r="H21" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C22" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="14" t="s">
+      <c r="F22" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="G22" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="A23" s="23"/>
       <c r="B23" s="9"/>
       <c r="C23" s="45"/>
       <c r="D23" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="G23" s="49"/>
       <c r="H23" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C24" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="14" t="s">
+      <c r="F24" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="G24" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="A25" s="23"/>
       <c r="B25" s="9"/>
       <c r="C25" s="45"/>
       <c r="D25" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="G25" s="49"/>
       <c r="H25" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="44" t="s">
-        <v>57</v>
-      </c>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="A27" s="23"/>
       <c r="B27" s="9"/>
       <c r="C27" s="45"/>
       <c r="D27" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="G27" s="49"/>
       <c r="H27" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="14" t="s">
+      <c r="F28" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="G28" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="A29" s="23"/>
       <c r="B29" s="9"/>
       <c r="C29" s="45"/>
       <c r="D29" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="G29" s="49"/>
       <c r="H29" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C30" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="14" t="s">
+      <c r="F30" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="G30" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8">
       <c r="A31" s="23"/>
       <c r="B31" s="9"/>
       <c r="C31" s="45"/>
       <c r="D31" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="G31" s="49"/>
       <c r="H31" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C32" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="14" t="s">
+      <c r="F32" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="G32" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8">
       <c r="A33" s="23"/>
       <c r="B33" s="9"/>
       <c r="C33" s="45"/>
       <c r="D33" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="G33" s="49"/>
       <c r="H33" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C34" s="21" t="s">
+      <c r="D34" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="E34" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>66</v>
-      </c>
       <c r="H34" s="17" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="G4:G9"/>
     <mergeCell ref="G10:G11"/>
@@ -2890,6 +2873,21 @@
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="G26:G27"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2898,14 +2896,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="29.125" customWidth="1"/>
@@ -2915,590 +2913,616 @@
     <col min="8" max="8" width="89.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="14.25" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="C3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="D3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="E3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="F3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="G3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="H3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="32" t="s">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="50" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="C4" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="D4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="E4" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="H4" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="50"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="55"/>
+      <c r="H5" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="50"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="55"/>
+      <c r="H6" s="34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="50"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="50"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="33" t="s">
+      <c r="F7" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="57"/>
-      <c r="H5" s="34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="50"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="57"/>
-      <c r="H6" s="34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="50"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="29" t="s">
+      <c r="G7" s="55"/>
+      <c r="H7" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="34" t="s">
+    </row>
+    <row r="8" spans="1:8" ht="54">
+      <c r="A8" s="50"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="A8" s="50"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="29" t="s">
+      <c r="E8" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="F8" s="33" t="s">
         <v>28</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>29</v>
       </c>
       <c r="G8" s="56"/>
       <c r="H8" s="35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="50" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="50" t="s">
+      <c r="B9" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="54" t="s">
+      <c r="D9" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="36" t="s">
+      <c r="F9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="G9" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="54" t="s">
-        <v>35</v>
-      </c>
       <c r="H9" s="34"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="50"/>
       <c r="B10" s="33"/>
-      <c r="C10" s="55"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="F10" s="33" t="s">
         <v>37</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>38</v>
       </c>
       <c r="G10" s="56"/>
       <c r="H10" s="34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="36" t="s">
+      <c r="F11" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="G11" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="54" t="s">
-        <v>35</v>
-      </c>
       <c r="H11" s="34"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="50"/>
       <c r="B12" s="33"/>
-      <c r="C12" s="55"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E12" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="33" t="s">
         <v>37</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>38</v>
       </c>
       <c r="G12" s="56"/>
       <c r="H12" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="50" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="50" t="s">
-        <v>42</v>
-      </c>
       <c r="B13" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="36" t="s">
+      <c r="F13" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="G13" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="54" t="s">
-        <v>35</v>
-      </c>
       <c r="H13" s="34"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="50"/>
       <c r="B14" s="33"/>
-      <c r="C14" s="55"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="33" t="s">
         <v>37</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>38</v>
       </c>
       <c r="G14" s="56"/>
       <c r="H14" s="34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="54" t="s">
-        <v>49</v>
-      </c>
       <c r="H15" s="34"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="50"/>
       <c r="B16" s="33"/>
-      <c r="C16" s="55"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="33" t="s">
         <v>37</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>38</v>
       </c>
       <c r="G16" s="56"/>
       <c r="H16" s="34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="36" t="s">
+      <c r="F17" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="54" t="s">
-        <v>49</v>
+      <c r="G17" s="51" t="s">
+        <v>48</v>
       </c>
       <c r="H17" s="34"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="50"/>
       <c r="B18" s="33"/>
-      <c r="C18" s="55"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E18" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="33" t="s">
         <v>37</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>38</v>
       </c>
       <c r="G18" s="56"/>
       <c r="H18" s="34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="36" t="s">
+      <c r="F19" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="54" t="s">
-        <v>49</v>
+      <c r="G19" s="51" t="s">
+        <v>48</v>
       </c>
       <c r="H19" s="34"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20" s="50"/>
       <c r="B20" s="33"/>
-      <c r="C20" s="55"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="33" t="s">
         <v>37</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>38</v>
       </c>
       <c r="G20" s="56"/>
       <c r="H20" s="34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="54" t="s">
-        <v>57</v>
-      </c>
       <c r="H21" s="34"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="A22" s="50"/>
       <c r="B22" s="33"/>
-      <c r="C22" s="55"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="33" t="s">
         <v>37</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>38</v>
       </c>
       <c r="G22" s="56"/>
       <c r="H22" s="34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="36" t="s">
+      <c r="F23" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="54" t="s">
-        <v>57</v>
+      <c r="G23" s="51" t="s">
+        <v>56</v>
       </c>
       <c r="H23" s="34"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="A24" s="50"/>
       <c r="B24" s="33"/>
-      <c r="C24" s="55"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E24" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="33" t="s">
         <v>37</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>38</v>
       </c>
       <c r="G24" s="56"/>
       <c r="H24" s="34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="36" t="s">
+      <c r="F25" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="54" t="s">
-        <v>57</v>
+      <c r="G25" s="51" t="s">
+        <v>56</v>
       </c>
       <c r="H25" s="34"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="A26" s="50"/>
       <c r="B26" s="33"/>
-      <c r="C26" s="55"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="33" t="s">
         <v>37</v>
-      </c>
-      <c r="F26" s="33" t="s">
-        <v>38</v>
       </c>
       <c r="G26" s="56"/>
       <c r="H26" s="34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="51" t="s">
+      <c r="D27" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="E27" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="F27" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="F27" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="38" t="s">
+      <c r="H27" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="35" t="s">
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="37" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="37" t="s">
+      <c r="B28" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="38" t="s">
+      <c r="B29" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" s="35" t="s">
         <v>66</v>
-      </c>
-      <c r="H28" s="35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H29" s="35" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
@@ -3507,33 +3531,7 @@
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C29"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3541,14 +3539,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27:F28"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="29.375" bestFit="1" customWidth="1"/>
@@ -3558,607 +3556,607 @@
     <col min="8" max="8" width="89.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="8" t="s">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="43" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="C4" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="48" t="s">
+      <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="43"/>
       <c r="B5" s="45"/>
       <c r="C5" s="47"/>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G5" s="48"/>
       <c r="H5" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="43"/>
       <c r="B6" s="45"/>
       <c r="C6" s="47"/>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="48"/>
       <c r="H6" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="43"/>
       <c r="B7" s="45"/>
       <c r="C7" s="47"/>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="48"/>
       <c r="H7" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="54">
       <c r="A8" s="43"/>
       <c r="B8" s="46"/>
       <c r="C8" s="47"/>
       <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="G8" s="49"/>
       <c r="H8" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="60" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="65" t="s">
+      <c r="B9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="60" t="s">
+      <c r="D9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="F9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="60" t="s">
-        <v>35</v>
-      </c>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="65"/>
+    <row r="10" spans="1:8">
+      <c r="A10" s="60"/>
       <c r="B10" s="12"/>
       <c r="C10" s="62"/>
       <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="G10" s="65"/>
+      <c r="H10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="61"/>
-      <c r="H10" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="65" t="s">
-        <v>73</v>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="60" t="s">
+        <v>71</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="F11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="G11" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="60" t="s">
-        <v>35</v>
-      </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="65"/>
+    <row r="12" spans="1:8">
+      <c r="A12" s="60"/>
       <c r="B12" s="12"/>
       <c r="C12" s="62"/>
       <c r="D12" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="61"/>
+      <c r="G12" s="65"/>
       <c r="H12" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="60" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="65" t="s">
-        <v>42</v>
-      </c>
       <c r="B13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="F13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="G13" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="60" t="s">
-        <v>35</v>
-      </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="65"/>
+    <row r="14" spans="1:8">
+      <c r="A14" s="60"/>
       <c r="B14" s="12"/>
       <c r="C14" s="62"/>
       <c r="D14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="65"/>
+      <c r="H14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="61"/>
-      <c r="H14" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="65" t="s">
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="60" t="s">
-        <v>49</v>
-      </c>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="65"/>
+    <row r="16" spans="1:8">
+      <c r="A16" s="60"/>
       <c r="B16" s="12"/>
       <c r="C16" s="62"/>
       <c r="D16" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="G16" s="65"/>
+      <c r="H16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="65" t="s">
-        <v>76</v>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="60" t="s">
+        <v>74</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="14" t="s">
+      <c r="F17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="60" t="s">
-        <v>49</v>
+      <c r="G17" s="61" t="s">
+        <v>48</v>
       </c>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="65"/>
+    <row r="18" spans="1:8">
+      <c r="A18" s="60"/>
       <c r="B18" s="12"/>
       <c r="C18" s="62"/>
       <c r="D18" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="61"/>
+      <c r="G18" s="65"/>
       <c r="H18" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="65" t="s">
-        <v>51</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="60" t="s">
+        <v>50</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="14" t="s">
+      <c r="F19" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="60" t="s">
-        <v>49</v>
+      <c r="G19" s="61" t="s">
+        <v>48</v>
       </c>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="65"/>
+    <row r="20" spans="1:8">
+      <c r="A20" s="60"/>
       <c r="B20" s="12"/>
       <c r="C20" s="62"/>
       <c r="D20" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="61"/>
+      <c r="G20" s="65"/>
       <c r="H20" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="65" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="60" t="s">
-        <v>57</v>
-      </c>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="65"/>
+    <row r="22" spans="1:8">
+      <c r="A22" s="60"/>
       <c r="B22" s="12"/>
       <c r="C22" s="62"/>
       <c r="D22" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="G22" s="65"/>
+      <c r="H22" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="61"/>
-      <c r="H22" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="65" t="s">
-        <v>79</v>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="60" t="s">
+        <v>77</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="14" t="s">
+      <c r="F23" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="60" t="s">
-        <v>57</v>
+      <c r="G23" s="61" t="s">
+        <v>56</v>
       </c>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="65"/>
+    <row r="24" spans="1:8">
+      <c r="A24" s="60"/>
       <c r="B24" s="12"/>
       <c r="C24" s="62"/>
       <c r="D24" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="61"/>
+      <c r="G24" s="65"/>
       <c r="H24" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="65" t="s">
-        <v>59</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="60" t="s">
+        <v>58</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="14" t="s">
+      <c r="F25" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="60" t="s">
-        <v>57</v>
+      <c r="G25" s="61" t="s">
+        <v>56</v>
       </c>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="65"/>
+    <row r="26" spans="1:8">
+      <c r="A26" s="60"/>
       <c r="B26" s="12"/>
       <c r="C26" s="62"/>
       <c r="D26" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="61"/>
+      <c r="G26" s="65"/>
       <c r="H26" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="63" t="s">
+      <c r="D27" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="E27" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="F27" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="F27" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>66</v>
-      </c>
       <c r="H27" s="17" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C28" s="64"/>
       <c r="D28" s="64"/>
       <c r="E28" s="64"/>
       <c r="F28" s="64"/>
       <c r="G28" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4167,14 +4165,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="30.75" customWidth="1"/>
@@ -4184,607 +4182,607 @@
     <col min="8" max="8" width="89.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="8" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A4" s="43" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="C4" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="48" t="s">
+      <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="43"/>
       <c r="B5" s="45"/>
       <c r="C5" s="47"/>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G5" s="48"/>
       <c r="H5" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="43"/>
       <c r="B6" s="45"/>
       <c r="C6" s="47"/>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="48"/>
       <c r="H6" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="43"/>
       <c r="B7" s="45"/>
       <c r="C7" s="47"/>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="48"/>
       <c r="H7" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="54">
       <c r="A8" s="43"/>
       <c r="B8" s="46"/>
       <c r="C8" s="47"/>
       <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="G8" s="49"/>
       <c r="H8" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A9" s="60" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="65" t="s">
+      <c r="B9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="60" t="s">
+      <c r="D9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="F9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="60" t="s">
-        <v>35</v>
-      </c>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="65"/>
+    <row r="10" spans="1:8">
+      <c r="A10" s="60"/>
       <c r="B10" s="12"/>
       <c r="C10" s="62"/>
       <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="G10" s="65"/>
+      <c r="H10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="61"/>
-      <c r="H10" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="65" t="s">
-        <v>73</v>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="60" t="s">
+        <v>71</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="F11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="G11" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="60" t="s">
-        <v>35</v>
-      </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="65"/>
+    <row r="12" spans="1:8">
+      <c r="A12" s="60"/>
       <c r="B12" s="12"/>
       <c r="C12" s="62"/>
       <c r="D12" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="61"/>
+      <c r="G12" s="65"/>
       <c r="H12" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A13" s="60" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="65" t="s">
-        <v>42</v>
-      </c>
       <c r="B13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="F13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="G13" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="60" t="s">
-        <v>35</v>
-      </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="65"/>
+    <row r="14" spans="1:8">
+      <c r="A14" s="60"/>
       <c r="B14" s="12"/>
       <c r="C14" s="62"/>
       <c r="D14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="65"/>
+      <c r="H14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="61"/>
-      <c r="H14" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="65" t="s">
+    </row>
+    <row r="15" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A15" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="60" t="s">
-        <v>49</v>
-      </c>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="65"/>
+    <row r="16" spans="1:8">
+      <c r="A16" s="60"/>
       <c r="B16" s="12"/>
       <c r="C16" s="62"/>
       <c r="D16" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="G16" s="65"/>
+      <c r="H16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="65" t="s">
-        <v>76</v>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="60" t="s">
+        <v>74</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="14" t="s">
+      <c r="F17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="60" t="s">
-        <v>49</v>
+      <c r="G17" s="61" t="s">
+        <v>48</v>
       </c>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="65"/>
+    <row r="18" spans="1:8">
+      <c r="A18" s="60"/>
       <c r="B18" s="12"/>
       <c r="C18" s="62"/>
       <c r="D18" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="61"/>
+      <c r="G18" s="65"/>
       <c r="H18" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="65" t="s">
-        <v>51</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A19" s="60" t="s">
+        <v>50</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="14" t="s">
+      <c r="F19" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="60" t="s">
-        <v>49</v>
+      <c r="G19" s="61" t="s">
+        <v>48</v>
       </c>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="65"/>
+    <row r="20" spans="1:8">
+      <c r="A20" s="60"/>
       <c r="B20" s="12"/>
       <c r="C20" s="62"/>
       <c r="D20" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="61"/>
+      <c r="G20" s="65"/>
       <c r="H20" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="65" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A21" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="60" t="s">
-        <v>57</v>
-      </c>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="65"/>
+    <row r="22" spans="1:8">
+      <c r="A22" s="60"/>
       <c r="B22" s="12"/>
       <c r="C22" s="62"/>
       <c r="D22" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="G22" s="65"/>
+      <c r="H22" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="61"/>
-      <c r="H22" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="65" t="s">
-        <v>79</v>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="60" t="s">
+        <v>77</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="14" t="s">
+      <c r="F23" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="60" t="s">
-        <v>57</v>
+      <c r="G23" s="61" t="s">
+        <v>56</v>
       </c>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="65"/>
+    <row r="24" spans="1:8">
+      <c r="A24" s="60"/>
       <c r="B24" s="12"/>
       <c r="C24" s="62"/>
       <c r="D24" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="61"/>
+      <c r="G24" s="65"/>
       <c r="H24" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="65" t="s">
-        <v>59</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A25" s="60" t="s">
+        <v>58</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="14" t="s">
+      <c r="F25" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="60" t="s">
-        <v>57</v>
+      <c r="G25" s="61" t="s">
+        <v>56</v>
       </c>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="65"/>
+    <row r="26" spans="1:8">
+      <c r="A26" s="60"/>
       <c r="B26" s="12"/>
       <c r="C26" s="62"/>
       <c r="D26" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="61"/>
+      <c r="G26" s="65"/>
       <c r="H26" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="63" t="s">
+      <c r="D27" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="E27" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="F27" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="F27" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="16" t="s">
+      <c r="H27" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C28" s="64"/>
       <c r="D28" s="64"/>
       <c r="E28" s="64"/>
       <c r="F28" s="64"/>
       <c r="G28" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
